--- a/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4124E6D1-5908-4FEA-9648-56ECAF95A9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA8523B-D28C-4683-B18C-231AEDB84EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A16E738F-C8EC-47F9-82D9-412501CAB7D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D0D0B68-B140-4184-8D43-AE225D77A468}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2007 (Tasa respuesta: 99,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1462 +77,1468 @@
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,12%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>90,01%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6583CC0-9DC4-46DF-B994-D18F7C838893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1376AFE9-1EB4-40E2-BA15-33F6F7051789}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2396,10 +2402,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2408,13 +2414,13 @@
         <v>185705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2435,13 @@
         <v>547305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2444,13 +2450,13 @@
         <v>593337</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1094</v>
@@ -2459,13 +2465,13 @@
         <v>1140642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,7 +2527,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2533,13 +2539,13 @@
         <v>81479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -2548,13 +2554,13 @@
         <v>117652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -2563,13 +2569,13 @@
         <v>199131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2590,13 @@
         <v>436118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>389</v>
@@ -2599,13 +2605,13 @@
         <v>397990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2614,13 +2620,13 @@
         <v>834108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,7 +2682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2688,13 +2694,13 @@
         <v>75372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -2703,13 +2709,13 @@
         <v>102594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -2718,13 +2724,13 @@
         <v>177965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2745,13 @@
         <v>310494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>297</v>
@@ -2754,13 +2760,13 @@
         <v>301392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>611</v>
@@ -2769,13 +2775,13 @@
         <v>611887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2843,13 +2849,13 @@
         <v>128508</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -2858,13 +2864,13 @@
         <v>201432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -2873,13 +2879,13 @@
         <v>329939</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,13 +2900,13 @@
         <v>372207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>468</v>
@@ -2909,13 +2915,13 @@
         <v>475410</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>855</v>
@@ -2924,13 +2930,13 @@
         <v>847618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3004,13 @@
         <v>471934</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>607</v>
@@ -3013,13 +3019,13 @@
         <v>641005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1070</v>
@@ -3028,13 +3034,13 @@
         <v>1112939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,7 +3055,7 @@
         <v>2798542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>134</v>
@@ -3163,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99200F0E-0839-43E1-91E7-59A063E47A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA66FB4-7293-44B4-9EB9-5A9D1510849F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3475,10 +3481,10 @@
         <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3499,13 @@
         <v>595928</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3508,13 +3514,13 @@
         <v>521749</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -3523,13 +3529,13 @@
         <v>1117677</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3603,13 @@
         <v>107680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -3612,13 +3618,13 @@
         <v>106788</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -3627,13 +3633,13 @@
         <v>214467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3654,7 @@
         <v>569167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>188</v>
@@ -3740,7 +3746,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3752,13 +3758,13 @@
         <v>107751</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -3767,13 +3773,13 @@
         <v>120265</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -3782,13 +3788,13 @@
         <v>228016</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3809,13 @@
         <v>500731</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -3818,13 +3824,13 @@
         <v>490099</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>878</v>
@@ -3833,13 +3839,13 @@
         <v>990830</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3907,13 +3913,13 @@
         <v>67506</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3922,13 +3928,13 @@
         <v>95451</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -3937,13 +3943,13 @@
         <v>162958</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3964,13 @@
         <v>356677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -4050,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4095,10 +4101,10 @@
         <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4119,13 @@
         <v>408903</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>522</v>
@@ -4128,13 +4134,13 @@
         <v>558959</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>889</v>
@@ -4143,13 +4149,13 @@
         <v>967862</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4223,13 @@
         <v>549405</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>566</v>
@@ -4232,13 +4238,13 @@
         <v>620610</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1071</v>
@@ -4247,13 +4253,13 @@
         <v>1170015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4274,13 @@
         <v>2836947</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H23" s="7">
         <v>2701</v>
@@ -4283,13 +4289,13 @@
         <v>2902294</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M23" s="7">
         <v>5365</v>
@@ -4298,13 +4304,13 @@
         <v>5739240</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082810BE-B00E-4B88-B733-7021A29EAE4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE6084F-2C38-4CB4-98AC-B90554334DDD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4509,10 +4515,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4521,13 +4527,13 @@
         <v>32035</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4536,13 +4542,13 @@
         <v>70640</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4566,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
         <v>370</v>
@@ -4572,13 +4578,13 @@
         <v>362758</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -4587,13 +4593,13 @@
         <v>743616</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4667,13 @@
         <v>58394</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -4676,13 +4682,13 @@
         <v>53118</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -4694,10 +4700,10 @@
         <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4718,13 @@
         <v>522013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -4727,13 +4733,13 @@
         <v>506126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>1024</v>
@@ -4745,10 +4751,10 @@
         <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4822,13 @@
         <v>88000</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -4831,13 +4837,13 @@
         <v>80889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -4846,13 +4852,13 @@
         <v>168889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4873,13 @@
         <v>580232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4882,13 +4888,13 @@
         <v>569299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>1127</v>
@@ -4897,13 +4903,13 @@
         <v>1149530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4959,7 +4965,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4971,13 +4977,13 @@
         <v>140368</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -4986,13 +4992,13 @@
         <v>123781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5001,13 +5007,13 @@
         <v>264149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5028,13 @@
         <v>498548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -5037,13 +5043,13 @@
         <v>519517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>930</v>
@@ -5052,13 +5058,13 @@
         <v>1018065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5126,13 +5132,13 @@
         <v>92316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>324</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -5141,13 +5147,13 @@
         <v>120663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -5156,13 +5162,13 @@
         <v>212978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5183,13 @@
         <v>380200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
         <v>320</v>
@@ -5192,13 +5198,13 @@
         <v>369353</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>656</v>
@@ -5207,13 +5213,13 @@
         <v>749553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5281,13 +5287,13 @@
         <v>135877</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>189</v>
@@ -5296,13 +5302,13 @@
         <v>226192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M19" s="7">
         <v>335</v>
@@ -5311,13 +5317,13 @@
         <v>362070</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5338,13 @@
         <v>452581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -5347,13 +5353,13 @@
         <v>545034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>938</v>
@@ -5362,13 +5368,13 @@
         <v>997614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5442,13 @@
         <v>553561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>581</v>
@@ -5451,13 +5457,13 @@
         <v>636678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>1109</v>
@@ -5466,13 +5472,13 @@
         <v>1190238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5493,13 @@
         <v>2814431</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>2724</v>
@@ -5502,13 +5508,13 @@
         <v>2872086</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>5404</v>
@@ -5517,13 +5523,13 @@
         <v>5686518</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BB6C79-DD35-46A4-AC00-4567FA9EF285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ED16BB-764C-4E91-9925-7F5D705E4848}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5725,13 +5731,13 @@
         <v>11089</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5740,13 +5746,13 @@
         <v>31753</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5755,13 +5761,13 @@
         <v>42842</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5782,13 @@
         <v>362185</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5791,13 +5797,13 @@
         <v>314599</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5806,13 +5812,13 @@
         <v>676784</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>34004</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5895,13 +5901,13 @@
         <v>35761</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5910,13 +5916,13 @@
         <v>69765</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5937,13 @@
         <v>391643</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -5946,13 +5952,13 @@
         <v>459600</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>691</v>
@@ -5961,13 +5967,13 @@
         <v>851243</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6047,7 @@
         <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -6050,13 +6056,13 @@
         <v>45715</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -6065,13 +6071,13 @@
         <v>112025</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6092,13 @@
         <v>483418</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H11" s="7">
         <v>771</v>
@@ -6101,13 +6107,13 @@
         <v>534504</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -6116,13 +6122,13 @@
         <v>1017923</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,7 +6184,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6190,13 +6196,13 @@
         <v>84560</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -6205,13 +6211,13 @@
         <v>84217</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>219</v>
@@ -6220,13 +6226,13 @@
         <v>168776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6247,13 @@
         <v>628401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>987</v>
@@ -6256,13 +6262,13 @@
         <v>649218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
@@ -6271,13 +6277,13 @@
         <v>1277620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6345,13 +6351,13 @@
         <v>107771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>176</v>
@@ -6360,13 +6366,13 @@
         <v>110298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>297</v>
@@ -6375,13 +6381,13 @@
         <v>218069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6402,13 @@
         <v>484977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>801</v>
@@ -6411,13 +6417,13 @@
         <v>472215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>1335</v>
@@ -6426,13 +6432,13 @@
         <v>957192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>213</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6506,13 @@
         <v>131121</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>392</v>
@@ -6515,13 +6521,13 @@
         <v>216163</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>587</v>
@@ -6530,13 +6536,13 @@
         <v>347284</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6557,13 @@
         <v>549080</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>1266</v>
@@ -6566,13 +6572,13 @@
         <v>671175</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>2074</v>
@@ -6581,13 +6587,13 @@
         <v>1220255</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6676,13 @@
         <v>523907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>1328</v>
@@ -6685,13 +6691,13 @@
         <v>958761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6712,13 @@
         <v>2899706</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>4430</v>
@@ -6721,13 +6727,13 @@
         <v>3101311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>7246</v>
@@ -6736,13 +6742,13 @@
         <v>6001017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA8523B-D28C-4683-B18C-231AEDB84EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FE7352-C86A-4CB2-8F8D-EAA0610C76DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D0D0B68-B140-4184-8D43-AE225D77A468}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{260A4BAD-F7BF-4772-A818-AD7E44225743}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="484">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -77,1308 +77,1266 @@
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
     <t>18,18%</t>
   </si>
   <si>
@@ -1502,9 +1460,6 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
     <t>13,78%</t>
   </si>
   <si>
@@ -1524,9 +1479,6 @@
   </si>
   <si>
     <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
   </si>
   <si>
     <t>86,52%</t>
@@ -1950,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1376AFE9-1EB4-40E2-BA15-33F6F7051789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B009F3-C730-49FF-BA2F-9A8D716F4B55}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2107,16 +2059,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>463</v>
@@ -2125,13 +2077,13 @@
         <v>456769</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>439</v>
@@ -2140,13 +2092,13 @@
         <v>415553</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>902</v>
@@ -2155,13 +2107,13 @@
         <v>872322</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2128,13 @@
         <v>493227</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2191,13 +2143,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>987</v>
@@ -2206,18 +2158,18 @@
         <v>960716</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2229,13 +2181,13 @@
         <v>59840</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>63</v>
@@ -2244,13 +2196,13 @@
         <v>71964</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -2259,19 +2211,19 @@
         <v>131804</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>648</v>
@@ -2280,13 +2232,13 @@
         <v>675649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>526</v>
@@ -2295,13 +2247,13 @@
         <v>551384</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>1174</v>
@@ -2310,13 +2262,13 @@
         <v>1227033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2283,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>589</v>
@@ -2346,13 +2298,13 @@
         <v>623348</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1292</v>
@@ -2361,18 +2313,18 @@
         <v>1358837</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2384,13 +2336,13 @@
         <v>90278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -2399,13 +2351,13 @@
         <v>95427</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2414,19 +2366,19 @@
         <v>185705</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>526</v>
@@ -2435,13 +2387,13 @@
         <v>547305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2450,13 +2402,13 @@
         <v>593337</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>1094</v>
@@ -2465,13 +2417,13 @@
         <v>1140642</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2438,13 @@
         <v>637583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>657</v>
@@ -2501,13 +2453,13 @@
         <v>688764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1269</v>
@@ -2516,18 +2468,18 @@
         <v>1326347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2539,13 +2491,13 @@
         <v>81479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -2554,13 +2506,13 @@
         <v>117652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -2569,19 +2521,19 @@
         <v>199131</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>408</v>
@@ -2590,13 +2542,13 @@
         <v>436118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>389</v>
@@ -2605,13 +2557,13 @@
         <v>397990</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>797</v>
@@ -2620,13 +2572,13 @@
         <v>834108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2593,13 @@
         <v>517597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2656,13 +2608,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>985</v>
@@ -2671,18 +2623,18 @@
         <v>1033239</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2646,13 @@
         <v>75372</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -2709,13 +2661,13 @@
         <v>102594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -2724,19 +2676,19 @@
         <v>177965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>314</v>
@@ -2745,13 +2697,13 @@
         <v>310494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>297</v>
@@ -2760,13 +2712,13 @@
         <v>301392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>611</v>
@@ -2775,13 +2727,13 @@
         <v>611887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2748,13 @@
         <v>385866</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2811,13 +2763,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>787</v>
@@ -2826,18 +2778,18 @@
         <v>789852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2801,13 @@
         <v>128508</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>193</v>
@@ -2864,13 +2816,13 @@
         <v>201432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>328</v>
@@ -2879,19 +2831,19 @@
         <v>329939</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>387</v>
@@ -2900,13 +2852,13 @@
         <v>372207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>468</v>
@@ -2915,13 +2867,13 @@
         <v>475410</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>855</v>
@@ -2930,13 +2882,13 @@
         <v>847618</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2903,13 @@
         <v>500715</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2966,13 +2918,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1183</v>
@@ -2981,13 +2933,13 @@
         <v>1177557</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2956,13 @@
         <v>471934</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>607</v>
@@ -3019,13 +2971,13 @@
         <v>641005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>1070</v>
@@ -3034,19 +2986,19 @@
         <v>1112939</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2746</v>
@@ -3055,13 +3007,13 @@
         <v>2798542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>2687</v>
@@ -3070,13 +3022,13 @@
         <v>2735067</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>5433</v>
@@ -3085,13 +3037,13 @@
         <v>5533609</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3058,13 @@
         <v>3270476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3294</v>
@@ -3121,13 +3073,13 @@
         <v>3376072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6503</v>
@@ -3136,18 +3088,18 @@
         <v>6646548</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA66FB4-7293-44B4-9EB9-5A9D1510849F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C68E3AA-C586-4962-81CA-76D30C7C3811}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3138,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3245,13 @@
         <v>42714</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3308,13 +3260,13 @@
         <v>41772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3323,19 +3275,19 @@
         <v>84487</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>400</v>
@@ -3344,13 +3296,13 @@
         <v>405541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>377</v>
@@ -3359,13 +3311,13 @@
         <v>385522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>777</v>
@@ -3374,13 +3326,13 @@
         <v>791062</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3347,13 @@
         <v>448255</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>418</v>
@@ -3410,13 +3362,13 @@
         <v>427294</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>858</v>
@@ -3425,18 +3377,18 @@
         <v>875549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3448,13 +3400,13 @@
         <v>83938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -3463,13 +3415,13 @@
         <v>86354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -3478,19 +3430,19 @@
         <v>170292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>583</v>
@@ -3499,13 +3451,13 @@
         <v>595928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3514,13 +3466,13 @@
         <v>521749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -3529,10 +3481,10 @@
         <v>1117677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>175</v>
@@ -3550,13 +3502,13 @@
         <v>679866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>569</v>
@@ -3565,13 +3517,13 @@
         <v>608103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1229</v>
@@ -3580,18 +3532,18 @@
         <v>1287969</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3603,13 +3555,13 @@
         <v>107680</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -3618,13 +3570,13 @@
         <v>106788</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -3633,19 +3585,19 @@
         <v>214467</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>542</v>
@@ -3654,13 +3606,13 @@
         <v>569167</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>560</v>
@@ -3669,13 +3621,13 @@
         <v>596693</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1102</v>
@@ -3684,13 +3636,13 @@
         <v>1165860</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3657,13 @@
         <v>676847</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>660</v>
@@ -3720,13 +3672,13 @@
         <v>703481</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1306</v>
@@ -3735,18 +3687,18 @@
         <v>1380327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3710,13 @@
         <v>107751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -3773,13 +3725,13 @@
         <v>120265</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -3788,19 +3740,19 @@
         <v>228016</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>445</v>
@@ -3809,13 +3761,13 @@
         <v>500731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -3824,13 +3776,13 @@
         <v>490099</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>878</v>
@@ -3839,13 +3791,13 @@
         <v>990830</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3812,13 @@
         <v>608482</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>535</v>
@@ -3875,13 +3827,13 @@
         <v>610364</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1077</v>
@@ -3890,18 +3842,18 @@
         <v>1218846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3865,13 @@
         <v>67506</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3928,13 +3880,13 @@
         <v>95451</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>145</v>
@@ -3943,19 +3895,19 @@
         <v>162958</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>327</v>
@@ -3964,13 +3916,13 @@
         <v>356677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>319</v>
@@ -3979,13 +3931,13 @@
         <v>349272</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>646</v>
@@ -3994,13 +3946,13 @@
         <v>705949</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3967,13 @@
         <v>424183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>403</v>
@@ -4030,13 +3982,13 @@
         <v>444723</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>791</v>
@@ -4045,18 +3997,18 @@
         <v>868907</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4020,13 @@
         <v>139815</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>160</v>
@@ -4083,13 +4035,13 @@
         <v>169980</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>286</v>
@@ -4098,19 +4050,19 @@
         <v>309795</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>367</v>
@@ -4119,13 +4071,13 @@
         <v>408903</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>522</v>
@@ -4134,13 +4086,13 @@
         <v>558959</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>889</v>
@@ -4149,13 +4101,13 @@
         <v>967862</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4122,13 @@
         <v>548718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>682</v>
@@ -4185,13 +4137,13 @@
         <v>728939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1175</v>
@@ -4200,13 +4152,13 @@
         <v>1277657</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,7 +4181,7 @@
         <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
         <v>566</v>
@@ -4238,13 +4190,13 @@
         <v>620610</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>1071</v>
@@ -4253,19 +4205,19 @@
         <v>1170015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2664</v>
@@ -4274,13 +4226,13 @@
         <v>2836947</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H23" s="7">
         <v>2701</v>
@@ -4289,28 +4241,28 @@
         <v>2902294</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>5365</v>
       </c>
       <c r="N23" s="7">
-        <v>5739240</v>
+        <v>5739239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4277,13 @@
         <v>3386352</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3267</v>
@@ -4340,33 +4292,33 @@
         <v>3522904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6436</v>
       </c>
       <c r="N24" s="7">
-        <v>6909255</v>
+        <v>6909254</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE6084F-2C38-4CB4-98AC-B90554334DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75922F08-37C3-4C60-861C-EF3AA1B1136B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4515,10 +4467,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4527,13 +4479,13 @@
         <v>32035</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4542,19 +4494,19 @@
         <v>70640</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>359</v>
@@ -4563,13 +4515,13 @@
         <v>380858</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>370</v>
@@ -4578,13 +4530,13 @@
         <v>362758</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -4593,13 +4545,13 @@
         <v>743616</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4566,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>403</v>
@@ -4629,13 +4581,13 @@
         <v>394793</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>796</v>
@@ -4644,18 +4596,18 @@
         <v>814256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4667,13 +4619,13 @@
         <v>58394</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>55</v>
@@ -4682,13 +4634,13 @@
         <v>53118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -4697,19 +4649,19 @@
         <v>111512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>504</v>
@@ -4718,13 +4670,13 @@
         <v>522013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -4733,28 +4685,28 @@
         <v>506126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>1024</v>
       </c>
       <c r="N8" s="7">
-        <v>1028139</v>
+        <v>1028140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4721,13 @@
         <v>580407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>575</v>
@@ -4784,33 +4736,33 @@
         <v>559244</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1134</v>
       </c>
       <c r="N9" s="7">
-        <v>1139651</v>
+        <v>1139652</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4822,13 +4774,13 @@
         <v>88000</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H10" s="7">
         <v>81</v>
@@ -4837,13 +4789,13 @@
         <v>80889</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -4852,19 +4804,19 @@
         <v>168889</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>554</v>
@@ -4873,13 +4825,13 @@
         <v>580232</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -4888,13 +4840,13 @@
         <v>569299</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>1127</v>
@@ -4903,13 +4855,13 @@
         <v>1149530</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4876,13 @@
         <v>668232</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>654</v>
@@ -4939,13 +4891,13 @@
         <v>650188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1291</v>
@@ -4954,18 +4906,18 @@
         <v>1318419</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4977,13 +4929,13 @@
         <v>140368</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -4992,13 +4944,13 @@
         <v>123781</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -5007,19 +4959,19 @@
         <v>264149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>449</v>
@@ -5028,13 +4980,13 @@
         <v>498548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>481</v>
@@ -5043,13 +4995,13 @@
         <v>519517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>930</v>
@@ -5058,13 +5010,13 @@
         <v>1018065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5031,13 @@
         <v>638916</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>597</v>
@@ -5094,13 +5046,13 @@
         <v>643298</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1173</v>
@@ -5109,18 +5061,18 @@
         <v>1282214</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5084,13 @@
         <v>92316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -5147,13 +5099,13 @@
         <v>120663</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -5162,19 +5114,19 @@
         <v>212978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>336</v>
@@ -5183,13 +5135,13 @@
         <v>380200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>320</v>
@@ -5198,13 +5150,13 @@
         <v>369353</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>656</v>
@@ -5213,13 +5165,13 @@
         <v>749553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5186,13 @@
         <v>472516</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>427</v>
@@ -5249,13 +5201,13 @@
         <v>490016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>846</v>
@@ -5264,18 +5216,18 @@
         <v>962531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5287,13 +5239,13 @@
         <v>135877</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>189</v>
@@ -5302,13 +5254,13 @@
         <v>226192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
         <v>335</v>
@@ -5317,19 +5269,19 @@
         <v>362070</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>478</v>
@@ -5338,13 +5290,13 @@
         <v>452581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>460</v>
@@ -5353,13 +5305,13 @@
         <v>545034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>938</v>
@@ -5368,13 +5320,13 @@
         <v>997614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5341,13 @@
         <v>588458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>649</v>
@@ -5404,13 +5356,13 @@
         <v>771226</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1273</v>
@@ -5419,13 +5371,13 @@
         <v>1359684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5394,13 @@
         <v>553561</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>581</v>
@@ -5457,13 +5409,13 @@
         <v>636678</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>1109</v>
@@ -5472,19 +5424,19 @@
         <v>1190238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2680</v>
@@ -5493,13 +5445,13 @@
         <v>2814431</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="H23" s="7">
         <v>2724</v>
@@ -5508,13 +5460,13 @@
         <v>2872086</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M23" s="7">
         <v>5404</v>
@@ -5523,13 +5475,13 @@
         <v>5686518</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5496,13 @@
         <v>3367992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3305</v>
@@ -5559,13 +5511,13 @@
         <v>3508764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6513</v>
@@ -5574,18 +5526,18 @@
         <v>6876756</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7ED16BB-764C-4E91-9925-7F5D705E4848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BFD790-619C-48D9-BC10-E3A425B7A78A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5683,13 @@
         <v>11089</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -5746,13 +5698,13 @@
         <v>31753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5761,19 +5713,19 @@
         <v>42842</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>164</v>
@@ -5782,13 +5734,13 @@
         <v>362185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="H5" s="7">
         <v>185</v>
@@ -5797,13 +5749,13 @@
         <v>314599</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5812,13 +5764,13 @@
         <v>676784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5785,13 @@
         <v>373274</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>202</v>
@@ -5848,13 +5800,13 @@
         <v>346352</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>372</v>
@@ -5863,18 +5815,18 @@
         <v>719626</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5886,13 +5838,13 @@
         <v>34004</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5901,13 +5853,13 @@
         <v>35761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5916,19 +5868,19 @@
         <v>69765</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>271</v>
@@ -5937,13 +5889,13 @@
         <v>391643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -5952,13 +5904,13 @@
         <v>459600</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>691</v>
@@ -5967,13 +5919,13 @@
         <v>851243</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +5940,13 @@
         <v>425647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>456</v>
@@ -6003,13 +5955,13 @@
         <v>495361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>756</v>
@@ -6018,18 +5970,18 @@
         <v>921008</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6041,13 +5993,13 @@
         <v>66310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -6056,13 +6008,13 @@
         <v>45715</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>137</v>
@@ -6071,19 +6023,19 @@
         <v>112025</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>471</v>
@@ -6092,13 +6044,13 @@
         <v>483418</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>771</v>
@@ -6107,13 +6059,13 @@
         <v>534504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -6122,13 +6074,13 @@
         <v>1017923</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6095,13 @@
         <v>549728</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>841</v>
@@ -6158,13 +6110,13 @@
         <v>580219</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1379</v>
@@ -6173,18 +6125,18 @@
         <v>1129948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6148,13 @@
         <v>84560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -6211,13 +6163,13 @@
         <v>84217</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>219</v>
@@ -6226,19 +6178,19 @@
         <v>168776</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>421</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>568</v>
@@ -6247,13 +6199,13 @@
         <v>628401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="H14" s="7">
         <v>987</v>
@@ -6262,13 +6214,13 @@
         <v>649218</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="M14" s="7">
         <v>1555</v>
@@ -6277,13 +6229,13 @@
         <v>1277620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6250,13 @@
         <v>712961</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1120</v>
@@ -6313,13 +6265,13 @@
         <v>733435</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1774</v>
@@ -6328,18 +6280,18 @@
         <v>1446396</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6303,13 @@
         <v>107771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>176</v>
@@ -6366,13 +6318,13 @@
         <v>110298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>297</v>
@@ -6381,19 +6333,19 @@
         <v>218069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>534</v>
@@ -6402,13 +6354,13 @@
         <v>484977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>801</v>
@@ -6417,13 +6369,13 @@
         <v>472215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>1335</v>
@@ -6432,13 +6384,13 @@
         <v>957192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6405,13 @@
         <v>592748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>977</v>
@@ -6468,13 +6420,13 @@
         <v>582513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1632</v>
@@ -6483,18 +6435,18 @@
         <v>1175261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6458,13 @@
         <v>131121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="H19" s="7">
         <v>392</v>
@@ -6521,13 +6473,13 @@
         <v>216163</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>587</v>
@@ -6536,19 +6488,19 @@
         <v>347284</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>808</v>
@@ -6557,13 +6509,13 @@
         <v>549080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="H20" s="7">
         <v>1266</v>
@@ -6572,13 +6524,13 @@
         <v>671175</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="M20" s="7">
         <v>2074</v>
@@ -6587,13 +6539,13 @@
         <v>1220255</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +6560,13 @@
         <v>680201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1658</v>
@@ -6623,13 +6575,13 @@
         <v>887338</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2661</v>
@@ -6638,13 +6590,13 @@
         <v>1567539</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6613,13 @@
         <v>434854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="H22" s="7">
         <v>824</v>
@@ -6676,13 +6628,13 @@
         <v>523907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>1328</v>
@@ -6691,19 +6643,19 @@
         <v>958761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>2816</v>
@@ -6712,13 +6664,13 @@
         <v>2899706</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="H23" s="7">
         <v>4430</v>
@@ -6727,13 +6679,13 @@
         <v>3101311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="M23" s="7">
         <v>7246</v>
@@ -6742,13 +6694,13 @@
         <v>6001017</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,13 +6715,13 @@
         <v>3334560</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5254</v>
@@ -6778,13 +6730,13 @@
         <v>3625218</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8574</v>
@@ -6793,18 +6745,18 @@
         <v>6959778</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59FE7352-C86A-4CB2-8F8D-EAA0610C76DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D05D8D-3F1A-4C87-A74E-821A3D619937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{260A4BAD-F7BF-4772-A818-AD7E44225743}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B72140F8-317F-43FF-A7A3-81992D4CC1AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -74,55 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,1366 +137,1438 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B009F3-C730-49FF-BA2F-9A8D716F4B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C15C0-8827-4F10-A29B-6A48B0FA7BB1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="D4" s="7">
-        <v>36458</v>
+        <v>301952</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2035,10 +2113,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="I4" s="7">
-        <v>51936</v>
+        <v>295334</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2050,70 +2128,70 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>85</v>
+        <v>610</v>
       </c>
       <c r="N4" s="7">
-        <v>88394</v>
+        <v>597286</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>463</v>
+        <v>193</v>
       </c>
       <c r="D5" s="7">
-        <v>456769</v>
+        <v>191275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="I5" s="7">
-        <v>415553</v>
+        <v>172155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>902</v>
+        <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>872322</v>
+        <v>363430</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2206,13 @@
         <v>493227</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2143,13 +2221,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>987</v>
@@ -2158,117 +2236,117 @@
         <v>960716</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>478</v>
       </c>
       <c r="D7" s="7">
-        <v>59840</v>
+        <v>498976</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>63</v>
+        <v>406</v>
       </c>
       <c r="I7" s="7">
-        <v>71964</v>
+        <v>432124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>118</v>
+        <v>884</v>
       </c>
       <c r="N7" s="7">
-        <v>131804</v>
+        <v>931100</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>648</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7">
-        <v>675649</v>
+        <v>236513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>526</v>
+        <v>183</v>
       </c>
       <c r="I8" s="7">
-        <v>551384</v>
+        <v>191224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1174</v>
+        <v>408</v>
       </c>
       <c r="N8" s="7">
-        <v>1227033</v>
+        <v>427737</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2361,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>589</v>
@@ -2298,13 +2376,13 @@
         <v>623348</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1292</v>
@@ -2313,117 +2391,117 @@
         <v>1358837</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>430</v>
       </c>
       <c r="D10" s="7">
-        <v>90278</v>
+        <v>448380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>466</v>
       </c>
       <c r="I10" s="7">
-        <v>95427</v>
+        <v>490264</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>175</v>
+        <v>896</v>
       </c>
       <c r="N10" s="7">
-        <v>185705</v>
+        <v>938644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>526</v>
+        <v>182</v>
       </c>
       <c r="D11" s="7">
-        <v>547305</v>
+        <v>189203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>568</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>593337</v>
+        <v>198500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1094</v>
+        <v>373</v>
       </c>
       <c r="N11" s="7">
-        <v>1140642</v>
+        <v>387703</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2516,13 @@
         <v>637583</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>657</v>
@@ -2453,13 +2531,13 @@
         <v>688764</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1269</v>
@@ -2468,117 +2546,117 @@
         <v>1326347</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>355</v>
+      </c>
+      <c r="D13" s="7">
+        <v>377779</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>354</v>
+      </c>
+      <c r="I13" s="7">
+        <v>367518</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="7">
-        <v>81479</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="7">
-        <v>113</v>
-      </c>
-      <c r="I13" s="7">
-        <v>117652</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="M13" s="7">
-        <v>188</v>
+        <v>709</v>
       </c>
       <c r="N13" s="7">
-        <v>199131</v>
+        <v>745297</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>408</v>
+        <v>128</v>
       </c>
       <c r="D14" s="7">
-        <v>436118</v>
+        <v>139818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="I14" s="7">
-        <v>397990</v>
+        <v>148124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>797</v>
+        <v>276</v>
       </c>
       <c r="N14" s="7">
-        <v>834108</v>
+        <v>287942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2671,13 @@
         <v>517597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2608,13 +2686,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>985</v>
@@ -2623,117 +2701,117 @@
         <v>1033239</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="D16" s="7">
-        <v>75372</v>
+        <v>279231</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="I16" s="7">
-        <v>102594</v>
+        <v>312655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>176</v>
+        <v>590</v>
       </c>
       <c r="N16" s="7">
-        <v>177965</v>
+        <v>591885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7">
-        <v>310494</v>
+        <v>106635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>301392</v>
+        <v>91331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>611</v>
+        <v>197</v>
       </c>
       <c r="N17" s="7">
-        <v>611887</v>
+        <v>197967</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2826,13 @@
         <v>385866</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2763,13 +2841,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>787</v>
@@ -2778,117 +2856,117 @@
         <v>789852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>135</v>
+        <v>414</v>
       </c>
       <c r="D19" s="7">
-        <v>128508</v>
+        <v>397045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>193</v>
+        <v>526</v>
       </c>
       <c r="I19" s="7">
-        <v>201432</v>
+        <v>542771</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>328</v>
+        <v>940</v>
       </c>
       <c r="N19" s="7">
-        <v>329939</v>
+        <v>939816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
-        <v>372207</v>
+        <v>103670</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>468</v>
+        <v>135</v>
       </c>
       <c r="I20" s="7">
-        <v>475410</v>
+        <v>134071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>855</v>
+        <v>243</v>
       </c>
       <c r="N20" s="7">
-        <v>847618</v>
+        <v>237741</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2981,13 @@
         <v>500715</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2918,13 +2996,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1183</v>
@@ -2933,13 +3011,13 @@
         <v>1177557</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,100 +3028,100 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>463</v>
+        <v>2266</v>
       </c>
       <c r="D22" s="7">
-        <v>471934</v>
+        <v>2303361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>607</v>
+        <v>2363</v>
       </c>
       <c r="I22" s="7">
-        <v>641005</v>
+        <v>2440667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1070</v>
+        <v>4629</v>
       </c>
       <c r="N22" s="7">
-        <v>1112939</v>
+        <v>4744028</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2746</v>
+        <v>943</v>
       </c>
       <c r="D23" s="7">
-        <v>2798542</v>
+        <v>967115</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>2687</v>
+        <v>931</v>
       </c>
       <c r="I23" s="7">
-        <v>2735067</v>
+        <v>935405</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>5433</v>
+        <v>1874</v>
       </c>
       <c r="N23" s="7">
-        <v>5533609</v>
+        <v>1902520</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3136,13 @@
         <v>3270476</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3294</v>
@@ -3073,13 +3151,13 @@
         <v>3376072</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6503</v>
@@ -3088,18 +3166,18 @@
         <v>6646548</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C68E3AA-C586-4962-81CA-76D30C7C3811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F5B617-C56E-4337-9201-F0D82F8E3433}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3138,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3239,100 +3317,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="D4" s="7">
-        <v>42714</v>
+        <v>272265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="I4" s="7">
-        <v>41772</v>
+        <v>281338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="N4" s="7">
-        <v>84487</v>
+        <v>553603</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>400</v>
+        <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>405541</v>
+        <v>175990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
-        <v>377</v>
+        <v>145</v>
       </c>
       <c r="I5" s="7">
-        <v>385522</v>
+        <v>145956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
-        <v>777</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>791062</v>
+        <v>321946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3425,13 @@
         <v>448255</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>418</v>
@@ -3362,13 +3440,13 @@
         <v>427294</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>858</v>
@@ -3377,117 +3455,117 @@
         <v>875549</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="D7" s="7">
-        <v>83938</v>
+        <v>444110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="I7" s="7">
-        <v>86354</v>
+        <v>443094</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
-        <v>156</v>
+        <v>843</v>
       </c>
       <c r="N7" s="7">
-        <v>170292</v>
+        <v>887204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>583</v>
+        <v>230</v>
       </c>
       <c r="D8" s="7">
-        <v>595928</v>
+        <v>235756</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
-        <v>490</v>
+        <v>156</v>
       </c>
       <c r="I8" s="7">
-        <v>521749</v>
+        <v>165009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
-        <v>1073</v>
+        <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>1117677</v>
+        <v>400765</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3580,13 @@
         <v>679866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>569</v>
@@ -3517,13 +3595,13 @@
         <v>608103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1229</v>
@@ -3532,117 +3610,117 @@
         <v>1287969</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>463</v>
       </c>
       <c r="D10" s="7">
-        <v>107680</v>
+        <v>484883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>503</v>
       </c>
       <c r="I10" s="7">
-        <v>106788</v>
+        <v>533313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>204</v>
+        <v>966</v>
       </c>
       <c r="N10" s="7">
-        <v>214467</v>
+        <v>1018195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>542</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
-        <v>569167</v>
+        <v>191964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
-        <v>560</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>596693</v>
+        <v>170168</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
-        <v>1102</v>
+        <v>340</v>
       </c>
       <c r="N11" s="7">
-        <v>1165860</v>
+        <v>362132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3735,13 @@
         <v>676847</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>660</v>
@@ -3672,13 +3750,13 @@
         <v>703481</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1306</v>
@@ -3687,117 +3765,117 @@
         <v>1380327</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>107751</v>
+        <v>429934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>102</v>
+        <v>427</v>
       </c>
       <c r="I13" s="7">
-        <v>120265</v>
+        <v>489792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
-        <v>199</v>
+        <v>809</v>
       </c>
       <c r="N13" s="7">
-        <v>228016</v>
+        <v>919726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>445</v>
+        <v>160</v>
       </c>
       <c r="D14" s="7">
-        <v>500731</v>
+        <v>178548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>490099</v>
+        <v>120572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
-        <v>878</v>
+        <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>990830</v>
+        <v>299120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3890,13 @@
         <v>608482</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>535</v>
@@ -3827,13 +3905,13 @@
         <v>610364</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1077</v>
@@ -3842,117 +3920,117 @@
         <v>1218846</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="D16" s="7">
-        <v>67506</v>
+        <v>284667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="I16" s="7">
-        <v>95451</v>
+        <v>333330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
-        <v>145</v>
+        <v>561</v>
       </c>
       <c r="N16" s="7">
-        <v>162958</v>
+        <v>617998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>327</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7">
-        <v>356677</v>
+        <v>139516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="I17" s="7">
-        <v>349272</v>
+        <v>111393</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
-        <v>646</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>705949</v>
+        <v>250909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4045,13 @@
         <v>424183</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>403</v>
@@ -3982,13 +4060,13 @@
         <v>444723</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>791</v>
@@ -3997,117 +4075,117 @@
         <v>868907</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>126</v>
+        <v>370</v>
       </c>
       <c r="D19" s="7">
-        <v>139815</v>
+        <v>416270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
-        <v>160</v>
+        <v>535</v>
       </c>
       <c r="I19" s="7">
-        <v>169980</v>
+        <v>571521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
-        <v>286</v>
+        <v>905</v>
       </c>
       <c r="N19" s="7">
-        <v>309795</v>
+        <v>987791</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>408903</v>
+        <v>132448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
-        <v>522</v>
+        <v>147</v>
       </c>
       <c r="I20" s="7">
-        <v>558959</v>
+        <v>157418</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
-        <v>889</v>
+        <v>270</v>
       </c>
       <c r="N20" s="7">
-        <v>967862</v>
+        <v>289866</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4200,13 @@
         <v>548718</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>682</v>
@@ -4137,13 +4215,13 @@
         <v>728939</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1175</v>
@@ -4152,13 +4230,13 @@
         <v>1277657</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,100 +4247,100 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>505</v>
+        <v>2172</v>
       </c>
       <c r="D22" s="7">
-        <v>549405</v>
+        <v>2332130</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
-        <v>566</v>
+        <v>2453</v>
       </c>
       <c r="I22" s="7">
-        <v>620610</v>
+        <v>2652388</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
-        <v>1071</v>
+        <v>4625</v>
       </c>
       <c r="N22" s="7">
-        <v>1170015</v>
+        <v>4984518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2664</v>
+        <v>997</v>
       </c>
       <c r="D23" s="7">
-        <v>2836947</v>
+        <v>1054222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
-        <v>2701</v>
+        <v>814</v>
       </c>
       <c r="I23" s="7">
-        <v>2902294</v>
+        <v>870516</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
-        <v>5365</v>
+        <v>1811</v>
       </c>
       <c r="N23" s="7">
-        <v>5739239</v>
+        <v>1924737</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4355,13 @@
         <v>3386352</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3267</v>
@@ -4292,33 +4370,33 @@
         <v>3522904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6436</v>
       </c>
       <c r="N24" s="7">
-        <v>6909254</v>
+        <v>6909255</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4340,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75922F08-37C3-4C60-861C-EF3AA1B1136B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4D32B6-110A-4245-B11C-378BE0134149}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4357,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4458,100 +4536,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="D4" s="7">
-        <v>38605</v>
+        <v>326392</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="I4" s="7">
-        <v>32035</v>
+        <v>314190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
-        <v>67</v>
+        <v>626</v>
       </c>
       <c r="N4" s="7">
-        <v>70640</v>
+        <v>640582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7">
-        <v>380858</v>
+        <v>93071</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
-        <v>370</v>
+        <v>83</v>
       </c>
       <c r="I5" s="7">
-        <v>362758</v>
+        <v>80603</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
-        <v>729</v>
+        <v>170</v>
       </c>
       <c r="N5" s="7">
-        <v>743616</v>
+        <v>173674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4644,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>403</v>
@@ -4581,13 +4659,13 @@
         <v>394793</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>796</v>
@@ -4596,117 +4674,117 @@
         <v>814256</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>453</v>
       </c>
       <c r="D7" s="7">
-        <v>58394</v>
+        <v>473395</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="I7" s="7">
-        <v>53118</v>
+        <v>453399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>110</v>
+        <v>919</v>
       </c>
       <c r="N7" s="7">
-        <v>111512</v>
+        <v>926793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>504</v>
+        <v>106</v>
       </c>
       <c r="D8" s="7">
-        <v>522013</v>
+        <v>107012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
-        <v>520</v>
+        <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>506126</v>
+        <v>105845</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
-        <v>1024</v>
+        <v>215</v>
       </c>
       <c r="N8" s="7">
-        <v>1028140</v>
+        <v>212858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4799,13 @@
         <v>580407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>575</v>
@@ -4736,132 +4814,132 @@
         <v>559244</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1134</v>
       </c>
       <c r="N9" s="7">
-        <v>1139652</v>
+        <v>1139651</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>525</v>
       </c>
       <c r="D10" s="7">
-        <v>88000</v>
+        <v>550364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="7">
+        <v>541</v>
+      </c>
+      <c r="I10" s="7">
+        <v>537258</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1066</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1087621</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="H10" s="7">
-        <v>81</v>
-      </c>
-      <c r="I10" s="7">
-        <v>80889</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="7">
-        <v>164</v>
-      </c>
-      <c r="N10" s="7">
-        <v>168889</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>554</v>
+        <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>580232</v>
+        <v>117868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="7">
+        <v>113</v>
+      </c>
+      <c r="I11" s="7">
+        <v>112930</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M11" s="7">
+        <v>225</v>
+      </c>
+      <c r="N11" s="7">
+        <v>230798</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="H11" s="7">
-        <v>573</v>
-      </c>
-      <c r="I11" s="7">
-        <v>569299</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1127</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1149530</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4954,13 @@
         <v>668232</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>654</v>
@@ -4891,13 +4969,13 @@
         <v>650188</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1291</v>
@@ -4906,117 +4984,117 @@
         <v>1318419</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>127</v>
+        <v>473</v>
       </c>
       <c r="D13" s="7">
-        <v>140368</v>
+        <v>526385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
-        <v>116</v>
+        <v>508</v>
       </c>
       <c r="I13" s="7">
-        <v>123781</v>
+        <v>549847</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
-        <v>243</v>
+        <v>981</v>
       </c>
       <c r="N13" s="7">
-        <v>264149</v>
+        <v>1076232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>449</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7">
-        <v>498548</v>
+        <v>112531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7">
-        <v>519517</v>
+        <v>93451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
-        <v>930</v>
+        <v>192</v>
       </c>
       <c r="N14" s="7">
-        <v>1018065</v>
+        <v>205982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5109,13 @@
         <v>638916</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>597</v>
@@ -5046,13 +5124,13 @@
         <v>643298</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1173</v>
@@ -5061,117 +5139,117 @@
         <v>1282214</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>83</v>
+        <v>350</v>
       </c>
       <c r="D16" s="7">
-        <v>92316</v>
+        <v>395098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="I16" s="7">
-        <v>120663</v>
+        <v>425874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>190</v>
+        <v>721</v>
       </c>
       <c r="N16" s="7">
-        <v>212978</v>
+        <v>820970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>336</v>
+        <v>69</v>
       </c>
       <c r="D17" s="7">
-        <v>380200</v>
+        <v>77418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
-        <v>320</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>369353</v>
+        <v>64142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
-        <v>656</v>
+        <v>125</v>
       </c>
       <c r="N17" s="7">
-        <v>749553</v>
+        <v>141561</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5264,13 @@
         <v>472516</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>427</v>
@@ -5201,13 +5279,13 @@
         <v>490016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>846</v>
@@ -5216,117 +5294,117 @@
         <v>962531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="D19" s="7">
-        <v>135877</v>
+        <v>486966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
-        <v>189</v>
+        <v>582</v>
       </c>
       <c r="I19" s="7">
-        <v>226192</v>
+        <v>694433</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
-        <v>335</v>
+        <v>1101</v>
       </c>
       <c r="N19" s="7">
-        <v>362070</v>
+        <v>1181400</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>478</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7">
-        <v>452581</v>
+        <v>101492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
-        <v>460</v>
+        <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>545034</v>
+        <v>76793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
-        <v>938</v>
+        <v>172</v>
       </c>
       <c r="N20" s="7">
-        <v>997614</v>
+        <v>178284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5419,13 @@
         <v>588458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>649</v>
@@ -5356,13 +5434,13 @@
         <v>771226</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1273</v>
@@ -5371,13 +5449,13 @@
         <v>1359684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,100 +5466,100 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>528</v>
+        <v>2626</v>
       </c>
       <c r="D22" s="7">
-        <v>553561</v>
+        <v>2758599</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
-        <v>581</v>
+        <v>2788</v>
       </c>
       <c r="I22" s="7">
-        <v>636678</v>
+        <v>2975000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
-        <v>1109</v>
+        <v>5414</v>
       </c>
       <c r="N22" s="7">
-        <v>1190238</v>
+        <v>5733599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2680</v>
+        <v>582</v>
       </c>
       <c r="D23" s="7">
-        <v>2814431</v>
+        <v>609393</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
-        <v>2724</v>
+        <v>517</v>
       </c>
       <c r="I23" s="7">
-        <v>2872086</v>
+        <v>533764</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
-        <v>5404</v>
+        <v>1099</v>
       </c>
       <c r="N23" s="7">
-        <v>5686518</v>
+        <v>1143157</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>209</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5574,13 @@
         <v>3367992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3305</v>
@@ -5511,13 +5589,13 @@
         <v>3508764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6513</v>
@@ -5526,18 +5604,18 @@
         <v>6876756</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BFD790-619C-48D9-BC10-E3A425B7A78A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0F0287-2AE3-44E0-AEA0-83E1B26C2C10}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5576,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5677,100 +5755,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>11089</v>
+        <v>179810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I4" s="7">
-        <v>31753</v>
+        <v>176266</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>245</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="N4" s="7">
-        <v>42842</v>
+        <v>356076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>362185</v>
+        <v>193464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>314599</v>
+        <v>170086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="N5" s="7">
-        <v>676784</v>
+        <v>363550</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5863,13 @@
         <v>373274</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>202</v>
@@ -5800,13 +5878,13 @@
         <v>346352</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>372</v>
@@ -5815,117 +5893,117 @@
         <v>719626</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7">
-        <v>34004</v>
+        <v>270886</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7">
-        <v>35761</v>
+        <v>268504</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>462</v>
       </c>
       <c r="N7" s="7">
-        <v>69765</v>
+        <v>539390</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>271</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
-        <v>391643</v>
+        <v>154761</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
+        <v>191</v>
+      </c>
+      <c r="I8" s="7">
+        <v>226857</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="I8" s="7">
-        <v>459600</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
-        <v>691</v>
+        <v>294</v>
       </c>
       <c r="N8" s="7">
-        <v>851243</v>
+        <v>381618</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,13 +6018,13 @@
         <v>425647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>456</v>
@@ -5955,13 +6033,13 @@
         <v>495361</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>756</v>
@@ -5970,117 +6048,117 @@
         <v>921008</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>358</v>
       </c>
       <c r="D10" s="7">
-        <v>66310</v>
+        <v>351124</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>535</v>
       </c>
       <c r="I10" s="7">
-        <v>45715</v>
+        <v>356103</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
-        <v>137</v>
+        <v>893</v>
       </c>
       <c r="N10" s="7">
-        <v>112025</v>
+        <v>707227</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>471</v>
+        <v>180</v>
       </c>
       <c r="D11" s="7">
-        <v>483418</v>
+        <v>198604</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
-        <v>771</v>
+        <v>306</v>
       </c>
       <c r="I11" s="7">
-        <v>534504</v>
+        <v>224116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="M11" s="7">
-        <v>1242</v>
+        <v>486</v>
       </c>
       <c r="N11" s="7">
-        <v>1017923</v>
+        <v>422721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6173,13 @@
         <v>549728</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>841</v>
@@ -6110,13 +6188,13 @@
         <v>580219</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1379</v>
@@ -6125,117 +6203,117 @@
         <v>1129948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>421</v>
       </c>
       <c r="D13" s="7">
-        <v>84560</v>
+        <v>421625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
-        <v>133</v>
+        <v>740</v>
       </c>
       <c r="I13" s="7">
-        <v>84217</v>
+        <v>479715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
-        <v>219</v>
+        <v>1161</v>
       </c>
       <c r="N13" s="7">
-        <v>168776</v>
+        <v>901340</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>568</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>628401</v>
+        <v>291336</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
-        <v>987</v>
+        <v>380</v>
       </c>
       <c r="I14" s="7">
-        <v>649218</v>
+        <v>253720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
-        <v>1555</v>
+        <v>613</v>
       </c>
       <c r="N14" s="7">
-        <v>1277620</v>
+        <v>545056</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6328,13 @@
         <v>712961</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1120</v>
@@ -6265,13 +6343,13 @@
         <v>733435</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1774</v>
@@ -6280,117 +6358,117 @@
         <v>1446396</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>457</v>
       </c>
       <c r="D16" s="7">
-        <v>107771</v>
+        <v>410050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="H16" s="7">
-        <v>176</v>
+        <v>715</v>
       </c>
       <c r="I16" s="7">
-        <v>110298</v>
+        <v>426488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="M16" s="7">
-        <v>297</v>
+        <v>1172</v>
       </c>
       <c r="N16" s="7">
-        <v>218069</v>
+        <v>836538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>438</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>534</v>
+        <v>198</v>
       </c>
       <c r="D17" s="7">
-        <v>484977</v>
+        <v>182698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7">
-        <v>801</v>
+        <v>262</v>
       </c>
       <c r="I17" s="7">
-        <v>472215</v>
+        <v>156025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="M17" s="7">
-        <v>1335</v>
+        <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>957192</v>
+        <v>338723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6483,13 @@
         <v>592748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>977</v>
@@ -6420,13 +6498,13 @@
         <v>582513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1632</v>
@@ -6435,117 +6513,117 @@
         <v>1175261</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>195</v>
+        <v>707</v>
       </c>
       <c r="D19" s="7">
-        <v>131121</v>
+        <v>476984</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H19" s="7">
-        <v>392</v>
+        <v>1184</v>
       </c>
       <c r="I19" s="7">
-        <v>216163</v>
+        <v>640492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
-        <v>587</v>
+        <v>1891</v>
       </c>
       <c r="N19" s="7">
-        <v>347284</v>
+        <v>1117476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>808</v>
+        <v>296</v>
       </c>
       <c r="D20" s="7">
-        <v>549080</v>
+        <v>203217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
-        <v>1266</v>
+        <v>474</v>
       </c>
       <c r="I20" s="7">
-        <v>671175</v>
+        <v>246846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
-        <v>2074</v>
+        <v>770</v>
       </c>
       <c r="N20" s="7">
-        <v>1220255</v>
+        <v>450063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6638,13 @@
         <v>680201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1658</v>
@@ -6575,13 +6653,13 @@
         <v>887338</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2661</v>
@@ -6590,13 +6668,13 @@
         <v>1567539</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,100 +6685,100 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>504</v>
+        <v>2220</v>
       </c>
       <c r="D22" s="7">
-        <v>434854</v>
+        <v>2110480</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
-        <v>824</v>
+        <v>3545</v>
       </c>
       <c r="I22" s="7">
-        <v>523907</v>
+        <v>2347567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
-        <v>1328</v>
+        <v>5765</v>
       </c>
       <c r="N22" s="7">
-        <v>958761</v>
+        <v>4458047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2816</v>
+        <v>1100</v>
       </c>
       <c r="D23" s="7">
-        <v>2899706</v>
+        <v>1224080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
-        <v>4430</v>
+        <v>1709</v>
       </c>
       <c r="I23" s="7">
-        <v>3101311</v>
+        <v>1277651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
-        <v>7246</v>
+        <v>2809</v>
       </c>
       <c r="N23" s="7">
-        <v>6001017</v>
+        <v>2501731</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6793,13 @@
         <v>3334560</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5254</v>
@@ -6730,13 +6808,13 @@
         <v>3625218</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8574</v>
@@ -6745,18 +6823,18 @@
         <v>6959778</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D05D8D-3F1A-4C87-A74E-821A3D619937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{405C01BD-4757-42CC-9C0B-E00CBE33E491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B72140F8-317F-43FF-A7A3-81992D4CC1AC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1F521E57-0610-4337-82A1-6F2990CC3183}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="571">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>67,84%</t>
@@ -191,7 +191,7 @@
     <t>34,13%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>70,32%</t>
@@ -248,7 +248,7 @@
     <t>31,78%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>72,99%</t>
@@ -305,7 +305,7 @@
     <t>30,78%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>72,36%</t>
@@ -362,61 +362,118 @@
     <t>28,2%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>70,43%</t>
@@ -743,58 +800,106 @@
     <t>32,28%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>68,87%</t>
@@ -1112,58 +1217,100 @@
     <t>17,4%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>81,91%</t>
@@ -1211,364 +1358,400 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>64,76%</t>
   </si>
   <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>35,24%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +2163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C15C0-8827-4F10-A29B-6A48B0FA7BB1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183DA329-5A3E-40F8-85EF-ED5ADEC48BDC}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2873,10 +3056,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>414</v>
+        <v>235</v>
       </c>
       <c r="D19" s="7">
-        <v>397045</v>
+        <v>226699</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2888,10 +3071,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>526</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>542771</v>
+        <v>268906</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2903,10 +3086,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>940</v>
+        <v>524</v>
       </c>
       <c r="N19" s="7">
-        <v>939816</v>
+        <v>495605</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2924,10 +3107,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>103670</v>
+        <v>64133</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2939,10 +3122,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="I20" s="7">
-        <v>134071</v>
+        <v>74028</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2954,10 +3137,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="N20" s="7">
-        <v>237741</v>
+        <v>138161</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2975,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>500715</v>
+        <v>290832</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2990,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3005,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1177557</v>
+        <v>633766</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3022,55 +3205,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2266</v>
+        <v>179</v>
       </c>
       <c r="D22" s="7">
-        <v>2303361</v>
+        <v>170346</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2363</v>
+        <v>237</v>
       </c>
       <c r="I22" s="7">
-        <v>2440667</v>
+        <v>273865</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>4629</v>
+        <v>416</v>
       </c>
       <c r="N22" s="7">
-        <v>4744028</v>
+        <v>444211</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>943</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7">
-        <v>967115</v>
+        <v>39537</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>931</v>
+        <v>53</v>
       </c>
       <c r="I23" s="7">
-        <v>935405</v>
+        <v>60043</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1874</v>
+        <v>94</v>
       </c>
       <c r="N23" s="7">
-        <v>1902520</v>
+        <v>99580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,63 +3313,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2266</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2303361</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2363</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2440666</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4629</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4744028</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>943</v>
+      </c>
+      <c r="D26" s="7">
+        <v>967115</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>931</v>
+      </c>
+      <c r="I26" s="7">
+        <v>935405</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1874</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1902520</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3270476</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
-        <v>3376072</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3376071</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6503</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6646548</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3199,8 +3538,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F5B617-C56E-4337-9201-F0D82F8E3433}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133E096D-45EA-42B0-86D6-9A30C1F4D2A0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3216,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3662,13 @@
         <v>272265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>273</v>
@@ -3338,13 +3677,13 @@
         <v>281338</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>541</v>
@@ -3353,13 +3692,13 @@
         <v>553603</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3713,13 @@
         <v>175990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>145</v>
@@ -3389,13 +3728,13 @@
         <v>145956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>317</v>
@@ -3404,13 +3743,13 @@
         <v>321946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3817,13 @@
         <v>444110</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>413</v>
@@ -3493,13 +3832,13 @@
         <v>443094</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>843</v>
@@ -3508,13 +3847,13 @@
         <v>887204</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3868,13 @@
         <v>235756</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>156</v>
@@ -3544,13 +3883,13 @@
         <v>165009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -3559,13 +3898,13 @@
         <v>400765</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3972,13 @@
         <v>484883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
@@ -3648,13 +3987,13 @@
         <v>533313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>966</v>
@@ -3663,13 +4002,13 @@
         <v>1018195</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,10 +4023,10 @@
         <v>191964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>41</v>
@@ -3699,13 +4038,13 @@
         <v>170168</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>340</v>
@@ -3714,13 +4053,13 @@
         <v>362132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +4127,13 @@
         <v>429934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>427</v>
@@ -3803,13 +4142,13 @@
         <v>489792</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>809</v>
@@ -3818,13 +4157,13 @@
         <v>919726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +4178,13 @@
         <v>178548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -3854,13 +4193,13 @@
         <v>120572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -3869,13 +4208,13 @@
         <v>299120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +4282,13 @@
         <v>284667</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>302</v>
@@ -3958,13 +4297,13 @@
         <v>333330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>561</v>
@@ -3973,13 +4312,13 @@
         <v>617998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4333,13 @@
         <v>139516</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
@@ -4009,13 +4348,13 @@
         <v>111393</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>230</v>
@@ -4024,13 +4363,13 @@
         <v>250909</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,49 +4431,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="D19" s="7">
-        <v>416270</v>
+        <v>225898</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
-        <v>535</v>
+        <v>263</v>
       </c>
       <c r="I19" s="7">
-        <v>571521</v>
+        <v>269499</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
-        <v>905</v>
+        <v>464</v>
       </c>
       <c r="N19" s="7">
-        <v>987791</v>
+        <v>495397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,49 +4482,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7">
-        <v>132448</v>
+        <v>77198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="I20" s="7">
-        <v>157418</v>
+        <v>78001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="N20" s="7">
-        <v>289866</v>
+        <v>155200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,10 +4533,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>493</v>
+        <v>275</v>
       </c>
       <c r="D21" s="7">
-        <v>548718</v>
+        <v>303096</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4209,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>682</v>
+        <v>339</v>
       </c>
       <c r="I21" s="7">
-        <v>728939</v>
+        <v>347500</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4224,10 +4563,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1175</v>
+        <v>614</v>
       </c>
       <c r="N21" s="7">
-        <v>1277657</v>
+        <v>650597</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4241,55 +4580,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2172</v>
+        <v>169</v>
       </c>
       <c r="D22" s="7">
-        <v>2332130</v>
+        <v>190372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>2453</v>
+        <v>272</v>
       </c>
       <c r="I22" s="7">
-        <v>2652388</v>
+        <v>302022</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>4625</v>
+        <v>441</v>
       </c>
       <c r="N22" s="7">
-        <v>4984518</v>
+        <v>492394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,49 +4637,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>997</v>
+        <v>49</v>
       </c>
       <c r="D23" s="7">
-        <v>1054222</v>
+        <v>55250</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>814</v>
+        <v>71</v>
       </c>
       <c r="I23" s="7">
-        <v>870516</v>
+        <v>79416</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>1811</v>
+        <v>120</v>
       </c>
       <c r="N23" s="7">
-        <v>1924737</v>
+        <v>134666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,63 +4688,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>218</v>
+      </c>
+      <c r="D24" s="7">
+        <v>245622</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>343</v>
+      </c>
+      <c r="I24" s="7">
+        <v>381438</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>561</v>
+      </c>
+      <c r="N24" s="7">
+        <v>627060</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2172</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2332130</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2453</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2652387</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4625</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4984518</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>997</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1054222</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>814</v>
+      </c>
+      <c r="I26" s="7">
+        <v>870516</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1811</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1924737</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3169</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3386352</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3267</v>
       </c>
-      <c r="I24" s="7">
-        <v>3522904</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3522903</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6436</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6909255</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4418,8 +4913,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4D32B6-110A-4245-B11C-378BE0134149}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A4F006-9C65-4634-9FD8-D7307DA51F8F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4435,7 +4930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +5037,13 @@
         <v>326392</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>320</v>
@@ -4557,13 +5052,13 @@
         <v>314190</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>626</v>
@@ -4572,13 +5067,13 @@
         <v>640582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +5088,13 @@
         <v>93071</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -4608,13 +5103,13 @@
         <v>80603</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -4623,13 +5118,13 @@
         <v>173674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +5192,13 @@
         <v>473395</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>466</v>
@@ -4712,13 +5207,13 @@
         <v>453399</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>919</v>
@@ -4727,13 +5222,13 @@
         <v>926793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +5243,13 @@
         <v>107012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -4763,13 +5258,13 @@
         <v>105845</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>215</v>
@@ -4778,13 +5273,13 @@
         <v>212858</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,16 +5344,16 @@
         <v>525</v>
       </c>
       <c r="D10" s="7">
-        <v>550364</v>
+        <v>550363</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>541</v>
@@ -4867,13 +5362,13 @@
         <v>537258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>1066</v>
@@ -4882,13 +5377,13 @@
         <v>1087621</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +5398,13 @@
         <v>117868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -4918,13 +5413,13 @@
         <v>112930</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>225</v>
@@ -4933,13 +5428,13 @@
         <v>230798</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +5446,7 @@
         <v>637</v>
       </c>
       <c r="D12" s="7">
-        <v>668232</v>
+        <v>668231</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5007,13 +5502,13 @@
         <v>526385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>508</v>
@@ -5022,13 +5517,13 @@
         <v>549847</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>981</v>
@@ -5037,13 +5532,13 @@
         <v>1076232</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5553,13 @@
         <v>112531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>89</v>
@@ -5073,13 +5568,13 @@
         <v>93451</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>192</v>
@@ -5088,13 +5583,13 @@
         <v>205982</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5657,13 @@
         <v>395098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>371</v>
@@ -5177,13 +5672,13 @@
         <v>425874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>721</v>
@@ -5192,13 +5687,13 @@
         <v>820970</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5708,13 @@
         <v>77418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -5228,13 +5723,13 @@
         <v>64142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>125</v>
@@ -5243,13 +5738,13 @@
         <v>141561</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,49 +5806,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>519</v>
+        <v>262</v>
       </c>
       <c r="D19" s="7">
-        <v>486966</v>
+        <v>267629</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
-        <v>582</v>
+        <v>314</v>
       </c>
       <c r="I19" s="7">
-        <v>694433</v>
+        <v>336677</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
-        <v>1101</v>
+        <v>576</v>
       </c>
       <c r="N19" s="7">
-        <v>1181400</v>
+        <v>604306</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,49 +5857,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D20" s="7">
-        <v>101492</v>
+        <v>64696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>76793</v>
+        <v>37027</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="N20" s="7">
-        <v>178284</v>
+        <v>101723</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,10 +5908,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>624</v>
+        <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>588458</v>
+        <v>332325</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5428,10 +5923,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>649</v>
+        <v>350</v>
       </c>
       <c r="I21" s="7">
-        <v>771226</v>
+        <v>373704</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5443,10 +5938,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1273</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1359684</v>
+        <v>706029</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5460,55 +5955,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2626</v>
+        <v>257</v>
       </c>
       <c r="D22" s="7">
-        <v>2758599</v>
+        <v>219337</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
-        <v>2788</v>
+        <v>268</v>
       </c>
       <c r="I22" s="7">
-        <v>2975000</v>
+        <v>357757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="M22" s="7">
-        <v>5414</v>
+        <v>525</v>
       </c>
       <c r="N22" s="7">
-        <v>5733599</v>
+        <v>577094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,49 +6012,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>582</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7">
-        <v>609393</v>
+        <v>36796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>517</v>
+        <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>533764</v>
+        <v>39765</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
-        <v>1099</v>
+        <v>75</v>
       </c>
       <c r="N23" s="7">
-        <v>1143157</v>
+        <v>76561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>422</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,63 +6063,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>299</v>
+      </c>
+      <c r="I24" s="7">
+        <v>397522</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>600</v>
+      </c>
+      <c r="N24" s="7">
+        <v>653655</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2626</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2758599</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2788</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2975000</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5414</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5733599</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>582</v>
+      </c>
+      <c r="D26" s="7">
+        <v>609393</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="7">
+        <v>517</v>
+      </c>
+      <c r="I26" s="7">
+        <v>533764</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1099</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1143157</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3367992</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3305</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3508764</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6513</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6876756</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5637,8 +6288,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0F0287-2AE3-44E0-AEA0-83E1B26C2C10}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7648152F-A3A5-43EC-AB97-5BBC150483CB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5654,7 +6305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,46 +6409,46 @@
         <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>179810</v>
+        <v>181907</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>106</v>
       </c>
       <c r="I4" s="7">
-        <v>176266</v>
+        <v>149340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>186</v>
       </c>
       <c r="N4" s="7">
-        <v>356076</v>
+        <v>331246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,46 +6460,46 @@
         <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>193464</v>
+        <v>213834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>170086</v>
+        <v>155792</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>186</v>
       </c>
       <c r="N5" s="7">
-        <v>363550</v>
+        <v>369627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +6511,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="7">
-        <v>373274</v>
+        <v>395741</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5875,7 +6526,7 @@
         <v>202</v>
       </c>
       <c r="I6" s="7">
-        <v>346352</v>
+        <v>305132</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5890,7 +6541,7 @@
         <v>372</v>
       </c>
       <c r="N6" s="7">
-        <v>719626</v>
+        <v>700873</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5913,46 +6564,46 @@
         <v>197</v>
       </c>
       <c r="D7" s="7">
-        <v>270886</v>
+        <v>263560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>265</v>
       </c>
       <c r="I7" s="7">
-        <v>268504</v>
+        <v>241730</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
       </c>
       <c r="N7" s="7">
-        <v>539390</v>
+        <v>505290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,46 +6615,46 @@
         <v>103</v>
       </c>
       <c r="D8" s="7">
-        <v>154761</v>
+        <v>157250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>191</v>
       </c>
       <c r="I8" s="7">
-        <v>226857</v>
+        <v>266785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>294</v>
       </c>
       <c r="N8" s="7">
-        <v>381618</v>
+        <v>424035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,7 +6666,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>425647</v>
+        <v>420810</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6030,7 +6681,7 @@
         <v>456</v>
       </c>
       <c r="I9" s="7">
-        <v>495361</v>
+        <v>508515</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6045,7 +6696,7 @@
         <v>756</v>
       </c>
       <c r="N9" s="7">
-        <v>921008</v>
+        <v>929325</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6068,46 +6719,46 @@
         <v>358</v>
       </c>
       <c r="D10" s="7">
-        <v>351124</v>
+        <v>333319</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>535</v>
       </c>
       <c r="I10" s="7">
-        <v>356103</v>
+        <v>328152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>893</v>
       </c>
       <c r="N10" s="7">
-        <v>707227</v>
+        <v>661471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,46 +6770,46 @@
         <v>180</v>
       </c>
       <c r="D11" s="7">
-        <v>198604</v>
+        <v>195458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>435</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="H11" s="7">
         <v>306</v>
       </c>
       <c r="I11" s="7">
-        <v>224116</v>
+        <v>211325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="M11" s="7">
         <v>486</v>
       </c>
       <c r="N11" s="7">
-        <v>422721</v>
+        <v>406783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,7 +6821,7 @@
         <v>538</v>
       </c>
       <c r="D12" s="7">
-        <v>549728</v>
+        <v>528777</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6185,7 +6836,7 @@
         <v>841</v>
       </c>
       <c r="I12" s="7">
-        <v>580219</v>
+        <v>539477</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6200,7 +6851,7 @@
         <v>1379</v>
       </c>
       <c r="N12" s="7">
-        <v>1129948</v>
+        <v>1068254</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6223,46 +6874,46 @@
         <v>421</v>
       </c>
       <c r="D13" s="7">
-        <v>421625</v>
+        <v>398969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>740</v>
       </c>
       <c r="I13" s="7">
-        <v>479715</v>
+        <v>437911</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="M13" s="7">
         <v>1161</v>
       </c>
       <c r="N13" s="7">
-        <v>901340</v>
+        <v>836880</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,46 +6925,46 @@
         <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>291336</v>
+        <v>478290</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
       </c>
       <c r="I14" s="7">
-        <v>253720</v>
+        <v>261987</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
       </c>
       <c r="N14" s="7">
-        <v>545056</v>
+        <v>740277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6976,7 @@
         <v>654</v>
       </c>
       <c r="D15" s="7">
-        <v>712961</v>
+        <v>877259</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6340,7 +6991,7 @@
         <v>1120</v>
       </c>
       <c r="I15" s="7">
-        <v>733435</v>
+        <v>699898</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6355,7 +7006,7 @@
         <v>1774</v>
       </c>
       <c r="N15" s="7">
-        <v>1446396</v>
+        <v>1577157</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6378,46 +7029,46 @@
         <v>457</v>
       </c>
       <c r="D16" s="7">
-        <v>410050</v>
+        <v>378909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>715</v>
       </c>
       <c r="I16" s="7">
-        <v>426488</v>
+        <v>388673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>1172</v>
       </c>
       <c r="N16" s="7">
-        <v>836538</v>
+        <v>767581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,46 +7080,46 @@
         <v>198</v>
       </c>
       <c r="D17" s="7">
-        <v>182698</v>
+        <v>175341</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
       </c>
       <c r="I17" s="7">
-        <v>156025</v>
+        <v>145769</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>338723</v>
+        <v>321111</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +7131,7 @@
         <v>655</v>
       </c>
       <c r="D18" s="7">
-        <v>592748</v>
+        <v>554250</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6495,7 +7146,7 @@
         <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>582513</v>
+        <v>534442</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6510,7 +7161,7 @@
         <v>1632</v>
       </c>
       <c r="N18" s="7">
-        <v>1175261</v>
+        <v>1088692</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6530,49 +7181,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>707</v>
+        <v>381</v>
       </c>
       <c r="D19" s="7">
-        <v>476984</v>
+        <v>244351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>288</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
-        <v>1184</v>
+        <v>537</v>
       </c>
       <c r="I19" s="7">
-        <v>640492</v>
+        <v>262731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
-        <v>1891</v>
+        <v>918</v>
       </c>
       <c r="N19" s="7">
-        <v>1117476</v>
+        <v>507082</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,49 +7232,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="D20" s="7">
-        <v>203217</v>
+        <v>119086</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="I20" s="7">
-        <v>246846</v>
+        <v>127495</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
-        <v>770</v>
+        <v>448</v>
       </c>
       <c r="N20" s="7">
-        <v>450063</v>
+        <v>246581</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +7283,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1003</v>
+        <v>563</v>
       </c>
       <c r="D21" s="7">
-        <v>680201</v>
+        <v>363437</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6647,10 +7298,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1658</v>
+        <v>803</v>
       </c>
       <c r="I21" s="7">
-        <v>887338</v>
+        <v>390226</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6662,10 +7313,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2661</v>
+        <v>1366</v>
       </c>
       <c r="N21" s="7">
-        <v>1567539</v>
+        <v>753663</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6679,55 +7330,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2220</v>
+        <v>326</v>
       </c>
       <c r="D22" s="7">
-        <v>2110480</v>
+        <v>195457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
-        <v>3545</v>
+        <v>647</v>
       </c>
       <c r="I22" s="7">
-        <v>2347567</v>
+        <v>311528</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="M22" s="7">
-        <v>5765</v>
+        <v>973</v>
       </c>
       <c r="N22" s="7">
-        <v>4458047</v>
+        <v>506985</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,49 +7387,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1100</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7">
-        <v>1224080</v>
+        <v>75288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7">
-        <v>1709</v>
+        <v>208</v>
       </c>
       <c r="I23" s="7">
-        <v>1277651</v>
+        <v>100740</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
-        <v>2809</v>
+        <v>322</v>
       </c>
       <c r="N23" s="7">
-        <v>2501731</v>
+        <v>176028</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,63 +7438,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>440</v>
+      </c>
+      <c r="D24" s="7">
+        <v>270745</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>855</v>
+      </c>
+      <c r="I24" s="7">
+        <v>412268</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1295</v>
+      </c>
+      <c r="N24" s="7">
+        <v>683013</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2220</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1996471</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3545</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2120065</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5765</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4116536</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1414547</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1709</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1269893</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2809</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2684441</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3320</v>
       </c>
-      <c r="D24" s="7">
-        <v>3334560</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3411018</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5254</v>
       </c>
-      <c r="I24" s="7">
-        <v>3625218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3389958</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8574</v>
       </c>
-      <c r="N24" s="7">
-        <v>6959778</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6800977</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
